--- a/data/trans_orig/Q17F_D_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>38102</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27531</v>
+        <v>27610</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51159</v>
+        <v>49488</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1272313261849849</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09193269793100885</v>
+        <v>0.0921958759830719</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1708296494239475</v>
+        <v>0.1652497132115991</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -765,19 +765,19 @@
         <v>41245</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29359</v>
+        <v>30765</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55510</v>
+        <v>55624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08379029933712684</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0596442081600712</v>
+        <v>0.06250111175572837</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.112771414334287</v>
+        <v>0.1130021969149752</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -786,19 +786,19 @@
         <v>79347</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64242</v>
+        <v>63404</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96223</v>
+        <v>97036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1002223737697277</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08114317366946193</v>
+        <v>0.08008494994748175</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1215373635318152</v>
+        <v>0.1225646102181934</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>17211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10194</v>
+        <v>10824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25635</v>
+        <v>25731</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05747175807655579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03404134028855982</v>
+        <v>0.03614502960313803</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08560089488314489</v>
+        <v>0.08591962225707789</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -836,19 +836,19 @@
         <v>39545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28670</v>
+        <v>28634</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53072</v>
+        <v>53344</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08033797264163589</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0582444836398982</v>
+        <v>0.05817052900713951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1078172671263945</v>
+        <v>0.1083696644237917</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -857,19 +857,19 @@
         <v>56757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43781</v>
+        <v>43504</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73456</v>
+        <v>73510</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07168856062287407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05529962659040909</v>
+        <v>0.05494950354880705</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09278172626586505</v>
+        <v>0.09284942167765899</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>33829</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24345</v>
+        <v>24854</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45747</v>
+        <v>46240</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1129610048106472</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08129401900440611</v>
+        <v>0.08299251617820413</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1527586975816155</v>
+        <v>0.1544046912759947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -907,19 +907,19 @@
         <v>46567</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32660</v>
+        <v>34856</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>59734</v>
+        <v>59735</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09460248164020063</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06635013615934196</v>
+        <v>0.07081160425442343</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1213528466566632</v>
+        <v>0.1213531857504435</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -928,19 +928,19 @@
         <v>80396</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63862</v>
+        <v>62463</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>96573</v>
+        <v>98083</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1015468068806221</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08066349216206754</v>
+        <v>0.07889648175745302</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1219804547559891</v>
+        <v>0.1238873867903393</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>210331</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>194722</v>
+        <v>195654</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>226607</v>
+        <v>226766</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7023359109278121</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6502138460522886</v>
+        <v>0.653323885180591</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7566837062364253</v>
+        <v>0.7572139939440815</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>358</v>
@@ -978,19 +978,19 @@
         <v>364881</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>345032</v>
+        <v>345417</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>383900</v>
+        <v>382571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7412692463810366</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7009455370801543</v>
+        <v>0.7017269114981844</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7799081725506177</v>
+        <v>0.7772070109103871</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>574</v>
@@ -999,19 +999,19 @@
         <v>575212</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>550177</v>
+        <v>550370</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>598311</v>
+        <v>599427</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7265422587267761</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6949202857905612</v>
+        <v>0.6951648611990581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7557183139982562</v>
+        <v>0.7571274704295301</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>25806</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17535</v>
+        <v>17858</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>35992</v>
+        <v>36632</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1091750681738248</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07418317487044758</v>
+        <v>0.07555221021960989</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1522702682076519</v>
+        <v>0.1549755069684745</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>44</v>
@@ -1124,19 +1124,19 @@
         <v>48399</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>36044</v>
+        <v>35584</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>61689</v>
+        <v>62318</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1319234218295717</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09824784087020881</v>
+        <v>0.09699276188466199</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.168150722554353</v>
+        <v>0.1698633829748519</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>71</v>
@@ -1145,19 +1145,19 @@
         <v>74204</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>58500</v>
+        <v>58433</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>90825</v>
+        <v>91605</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1230098217248921</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09697609774931641</v>
+        <v>0.09686509395482963</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1505617372729351</v>
+        <v>0.1518549380121867</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>29389</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20039</v>
+        <v>19993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41521</v>
+        <v>40728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1243360652406692</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08477687144258766</v>
+        <v>0.08458106448204215</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1756584343925802</v>
+        <v>0.1723072829885291</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1195,19 +1195,19 @@
         <v>28426</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19373</v>
+        <v>19563</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38730</v>
+        <v>40416</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07748294256484525</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0528063014600017</v>
+        <v>0.05332314273619333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1055688106141062</v>
+        <v>0.1101633187068184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1216,19 +1216,19 @@
         <v>57816</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43845</v>
+        <v>44406</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75160</v>
+        <v>73405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09584163372587741</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07268282710855373</v>
+        <v>0.07361259333294491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1245934478413735</v>
+        <v>0.1216841802938526</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>18202</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11414</v>
+        <v>11119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27227</v>
+        <v>26741</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07700532560776614</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04828711994544795</v>
+        <v>0.04703944106948724</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1151859014509974</v>
+        <v>0.1131325231931222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -1266,19 +1266,19 @@
         <v>36316</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25815</v>
+        <v>26024</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48506</v>
+        <v>49093</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09898889882822821</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07036506346437787</v>
+        <v>0.07093394030107456</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1322149729330297</v>
+        <v>0.1338159288043126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -1287,19 +1287,19 @@
         <v>54518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39454</v>
+        <v>40350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68628</v>
+        <v>69320</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09037496643010759</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06540350817537849</v>
+        <v>0.06688954158253529</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.113765344044904</v>
+        <v>0.114912876604161</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>162974</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>149605</v>
+        <v>149007</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>177881</v>
+        <v>176909</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6894835409777399</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6329252350225585</v>
+        <v>0.6303942778994815</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7525506527671953</v>
+        <v>0.7484365550455678</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>249</v>
@@ -1337,19 +1337,19 @@
         <v>253729</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>236696</v>
+        <v>235052</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>270413</v>
+        <v>272490</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6916047367773548</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6451769693982904</v>
+        <v>0.6406965247978696</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7370808095724836</v>
+        <v>0.7427414742667191</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>409</v>
@@ -1358,19 +1358,19 @@
         <v>416702</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>393553</v>
+        <v>391069</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>438864</v>
+        <v>436989</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.690773578119123</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6523994548815253</v>
+        <v>0.6482817454006646</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7275111916254476</v>
+        <v>0.7244028371600589</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>10469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4795</v>
+        <v>4549</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19244</v>
+        <v>18215</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1511992640059723</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06925138918778521</v>
+        <v>0.06569454284877013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2779422118052188</v>
+        <v>0.2630759276456575</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -1483,19 +1483,19 @@
         <v>13817</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8303</v>
+        <v>8190</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22103</v>
+        <v>21779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1265562820894252</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07605433378491543</v>
+        <v>0.07501971500659656</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2024526499339461</v>
+        <v>0.1994826843627747</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -1504,19 +1504,19 @@
         <v>24286</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15510</v>
+        <v>16343</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35770</v>
+        <v>36047</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1361196697709134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08693074620642689</v>
+        <v>0.09160142653374533</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2004908463243755</v>
+        <v>0.2020401728388555</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>5497</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2501</v>
+        <v>1992</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11978</v>
+        <v>11336</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07938872111865997</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03612520398455304</v>
+        <v>0.02877481749254736</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1729966884765282</v>
+        <v>0.1637172466227356</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -1557,16 +1557,16 @@
         <v>4624</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>16838</v>
+        <v>16563</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08761602388074925</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04235793660826687</v>
+        <v>0.0423515768903809</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1542286389813138</v>
+        <v>0.1517074085986622</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -1575,19 +1575,19 @@
         <v>15062</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8644</v>
+        <v>8746</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24295</v>
+        <v>23213</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08442319250371501</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04845172083937779</v>
+        <v>0.04901867652437137</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1361694026439788</v>
+        <v>0.1301072738817251</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>4323</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1023</v>
+        <v>999</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10116</v>
+        <v>10765</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06243939460135931</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01476776583435784</v>
+        <v>0.01442350124247564</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1461014783112452</v>
+        <v>0.1554710735824623</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1625,19 +1625,19 @@
         <v>9959</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5226</v>
+        <v>5372</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16920</v>
+        <v>17528</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09121528684225089</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04786973041185016</v>
+        <v>0.04920296698311872</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1549778946497986</v>
+        <v>0.1605517861960346</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1646,19 +1646,19 @@
         <v>14282</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7967</v>
+        <v>8157</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23460</v>
+        <v>23966</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08004800950899964</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04465491201060726</v>
+        <v>0.04571834697533629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1314899727179798</v>
+        <v>0.1343252933200851</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>48950</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39773</v>
+        <v>40973</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56795</v>
+        <v>56335</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7069726202740084</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.574436085010648</v>
+        <v>0.591754726354802</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8202681112565555</v>
+        <v>0.8136380220181876</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -1696,19 +1696,19 @@
         <v>75835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>66247</v>
+        <v>65701</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84401</v>
+        <v>85209</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6946124071875747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6067929566144205</v>
+        <v>0.6017943324048917</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7730756333592923</v>
+        <v>0.7804710639221474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>119</v>
@@ -1717,19 +1717,19 @@
         <v>124784</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>111444</v>
+        <v>111590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136908</v>
+        <v>136999</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6994091282163719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6246389123183145</v>
+        <v>0.6254568194675559</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7673609177756739</v>
+        <v>0.7678685628030754</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>74377</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58752</v>
+        <v>58910</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93034</v>
+        <v>90863</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1229204096985757</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0970968480281747</v>
+        <v>0.09735793305327092</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1537540179710359</v>
+        <v>0.1501659455179252</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -1842,19 +1842,19 @@
         <v>103460</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>85307</v>
+        <v>85730</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>124554</v>
+        <v>123968</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1068492411132026</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08810146126791168</v>
+        <v>0.08853856725266156</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1286334637154148</v>
+        <v>0.1280283891211674</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>174</v>
@@ -1863,19 +1863,19 @@
         <v>177837</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>155451</v>
+        <v>152487</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>204857</v>
+        <v>204881</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1130298724751896</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09880123107209467</v>
+        <v>0.09691758713030704</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1302028340538328</v>
+        <v>0.1302182977877255</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>52097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40196</v>
+        <v>38817</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>68582</v>
+        <v>68450</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08609963429655268</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06643036636916297</v>
+        <v>0.06415130200349313</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1133436127784544</v>
+        <v>0.1131250066018421</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -1913,19 +1913,19 @@
         <v>77537</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62145</v>
+        <v>60984</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>96284</v>
+        <v>94975</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08007685257596721</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06418078540672054</v>
+        <v>0.06298158054561183</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09943831938667617</v>
+        <v>0.09808587538604113</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>127</v>
@@ -1934,19 +1934,19 @@
         <v>129635</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>106679</v>
+        <v>108882</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150591</v>
+        <v>151550</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08239308697988801</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06780286877469786</v>
+        <v>0.06920316933745896</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09571261465628383</v>
+        <v>0.09632236298102227</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>56354</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>43713</v>
+        <v>43585</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>73184</v>
+        <v>71903</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09313414231447054</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07224264351937087</v>
+        <v>0.07203111520530847</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1209481982039693</v>
+        <v>0.1188323281116986</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>92</v>
@@ -1984,19 +1984,19 @@
         <v>92841</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>73839</v>
+        <v>75136</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>113537</v>
+        <v>112313</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09588252486244646</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07625812400136127</v>
+        <v>0.07759669845042637</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1172555971205964</v>
+        <v>0.1159923482286536</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>150</v>
@@ -2005,19 +2005,19 @@
         <v>149195</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>128642</v>
+        <v>127305</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>172786</v>
+        <v>171835</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09482555509198323</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08176252726270171</v>
+        <v>0.08091258364697439</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1098191862862715</v>
+        <v>0.1092147885360028</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>422255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>397634</v>
+        <v>398829</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>443866</v>
+        <v>443118</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6978458136904011</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6571553375956551</v>
+        <v>0.659131003881766</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7335621289823773</v>
+        <v>0.7323254508724355</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>680</v>
@@ -2055,19 +2055,19 @@
         <v>694444</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>665798</v>
+        <v>666045</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>721082</v>
+        <v>723639</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7171913814483837</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6876069785721091</v>
+        <v>0.6878616894074273</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7447017637665109</v>
+        <v>0.7473423526119863</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1102</v>
@@ -2076,19 +2076,19 @@
         <v>1116700</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1082440</v>
+        <v>1080288</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1150354</v>
+        <v>1150746</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7097514854529392</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6879769955386079</v>
+        <v>0.6866089364336172</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7311413803997244</v>
+        <v>0.7313907890488199</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>44003</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32702</v>
+        <v>31648</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58824</v>
+        <v>57930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1345325625154908</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09998120452533889</v>
+        <v>0.09676032788378505</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1798468851356295</v>
+        <v>0.1771138021436748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -2440,19 +2440,19 @@
         <v>43280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31848</v>
+        <v>32021</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57208</v>
+        <v>58181</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08206140689846282</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06038638982631454</v>
+        <v>0.06071375548950873</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1084706426438159</v>
+        <v>0.1103145744502142</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -2461,19 +2461,19 @@
         <v>87282</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70523</v>
+        <v>69962</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106333</v>
+        <v>106438</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1021462522414107</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08253223761748862</v>
+        <v>0.08187611794017113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.124441533878261</v>
+        <v>0.1245641491637742</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>21625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14166</v>
+        <v>14287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32429</v>
+        <v>33152</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06611608117118783</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04331021059279912</v>
+        <v>0.04367999540643309</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09914829848065433</v>
+        <v>0.1013584591136009</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -2511,19 +2511,19 @@
         <v>39220</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27922</v>
+        <v>29158</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52962</v>
+        <v>54195</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07436487744697998</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05294307931943556</v>
+        <v>0.05528619102651173</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1004195904526549</v>
+        <v>0.1027572191656388</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -2532,19 +2532,19 @@
         <v>60846</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48053</v>
+        <v>48229</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77838</v>
+        <v>76873</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07120741320750353</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05623626598770985</v>
+        <v>0.05644263154261339</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09109347771221168</v>
+        <v>0.08996459832515533</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>33129</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21965</v>
+        <v>21980</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47070</v>
+        <v>46955</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.101287830057675</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06715520985251923</v>
+        <v>0.06720009978610793</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1439096706447294</v>
+        <v>0.143558732757442</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -2582,19 +2582,19 @@
         <v>56207</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42486</v>
+        <v>43698</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72284</v>
+        <v>70783</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1065716158119382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0805573282088811</v>
+        <v>0.08285523769745329</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1370560381397565</v>
+        <v>0.1342091115839226</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>81</v>
@@ -2603,19 +2603,19 @@
         <v>89336</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>71194</v>
+        <v>72303</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>107645</v>
+        <v>112342</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1045490947057858</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08331759104205458</v>
+        <v>0.08461594561811094</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1259763497466676</v>
+        <v>0.1314736081820368</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>228322</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>209780</v>
+        <v>208754</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>244964</v>
+        <v>245800</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6980635262556464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6413730585587311</v>
+        <v>0.6382361226878984</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7489453518660778</v>
+        <v>0.7514998669965789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>367</v>
@@ -2653,19 +2653,19 @@
         <v>388699</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>367737</v>
+        <v>366549</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>409157</v>
+        <v>408513</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.737002099842619</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6972564567631828</v>
+        <v>0.6950032812164949</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7757916844092868</v>
+        <v>0.7745700483146074</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>576</v>
@@ -2674,19 +2674,19 @@
         <v>617021</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>589105</v>
+        <v>589558</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>643028</v>
+        <v>643136</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7220972398453001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6894273845997999</v>
+        <v>0.6899570673712186</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7525322433906941</v>
+        <v>0.7526597560619892</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>37427</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26953</v>
+        <v>27524</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>50275</v>
+        <v>50792</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1090913248597459</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07856194680004028</v>
+        <v>0.08022600877393943</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1465425213802946</v>
+        <v>0.1480495237089898</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>58</v>
@@ -2799,19 +2799,19 @@
         <v>61190</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48445</v>
+        <v>47276</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>78638</v>
+        <v>75779</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1288537454898369</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1020155092147161</v>
+        <v>0.09955394212284477</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.165594887841759</v>
+        <v>0.1595747123988772</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>94</v>
@@ -2820,19 +2820,19 @@
         <v>98617</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>81194</v>
+        <v>81975</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>119572</v>
+        <v>119186</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1205647847295246</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09926497563365994</v>
+        <v>0.1002189598176063</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1461832124478427</v>
+        <v>0.1457121937377866</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>17314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10152</v>
+        <v>9825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28251</v>
+        <v>27439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05046755266822935</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02959191784971518</v>
+        <v>0.0286389172119683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08234610767248696</v>
+        <v>0.07997894194442091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -2870,19 +2870,19 @@
         <v>47129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35380</v>
+        <v>33265</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63004</v>
+        <v>61471</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09924383867501443</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07450229821009666</v>
+        <v>0.07005012768236915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1326733489960895</v>
+        <v>0.1294445201070847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -2891,19 +2891,19 @@
         <v>64443</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49071</v>
+        <v>49932</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82911</v>
+        <v>83747</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07878557962306403</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05999274054871476</v>
+        <v>0.0610448251357586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1013640149435582</v>
+        <v>0.1023855281740489</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>38255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27479</v>
+        <v>27705</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51325</v>
+        <v>52558</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1115064287865653</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08009659841935016</v>
+        <v>0.08075404905574034</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1496028129717688</v>
+        <v>0.1531965239585019</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>61</v>
@@ -2941,19 +2941,19 @@
         <v>66592</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52073</v>
+        <v>51302</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>83020</v>
+        <v>82567</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1402283236124769</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1096542106197623</v>
+        <v>0.1080305155657887</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1748227503336895</v>
+        <v>0.1738695698817025</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>97</v>
@@ -2962,19 +2962,19 @@
         <v>104847</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>86582</v>
+        <v>84901</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>126791</v>
+        <v>125112</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1281814866571246</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1058519342147505</v>
+        <v>0.103795835084445</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1550092992865876</v>
+        <v>0.1529568974415873</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>250080</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>233530</v>
+        <v>232293</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>266549</v>
+        <v>266649</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7289346936854594</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6806933770735821</v>
+        <v>0.6770893921909188</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7769371872482229</v>
+        <v>0.777230635160425</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>283</v>
@@ -3012,19 +3012,19 @@
         <v>299970</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>278602</v>
+        <v>278883</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>319968</v>
+        <v>322143</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6316740922226717</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5866776581922765</v>
+        <v>0.587268652861703</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6737850486765807</v>
+        <v>0.6783666374095719</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>515</v>
@@ -3033,19 +3033,19 @@
         <v>550050</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>524796</v>
+        <v>522422</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>578479</v>
+        <v>577578</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6724681489902867</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.641593374995844</v>
+        <v>0.638691771755922</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7072247410683563</v>
+        <v>0.7061225686581973</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>12450</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6658</v>
+        <v>6102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22093</v>
+        <v>21223</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1664546155564801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08900981929250264</v>
+        <v>0.08158630292060204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2953635423304697</v>
+        <v>0.2837409090936736</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -3158,19 +3158,19 @@
         <v>11356</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6176</v>
+        <v>6492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19069</v>
+        <v>19022</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1084011343322226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05895488928716146</v>
+        <v>0.06197182421602931</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1820219469448114</v>
+        <v>0.1815805973821458</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -3179,19 +3179,19 @@
         <v>23807</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14838</v>
+        <v>15504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36393</v>
+        <v>35200</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1325843243553129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08263622981781346</v>
+        <v>0.08634658697720324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2026808709405251</v>
+        <v>0.196038269728711</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>2972</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>953</v>
+        <v>885</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7920</v>
+        <v>8214</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03973548737946546</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01273815873112631</v>
+        <v>0.01183069115722402</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1058789292157194</v>
+        <v>0.109810557175814</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -3229,19 +3229,19 @@
         <v>9505</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4658</v>
+        <v>4605</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17041</v>
+        <v>19545</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09073170825494463</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04446824229456493</v>
+        <v>0.04395339345964571</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1626710618521836</v>
+        <v>0.1865685208210378</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>11</v>
@@ -3250,19 +3250,19 @@
         <v>12477</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6365</v>
+        <v>6748</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>22568</v>
+        <v>22040</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06948834310467547</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03544629495658438</v>
+        <v>0.03758027483960184</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1256837031139365</v>
+        <v>0.1227475201335007</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>5190</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1969</v>
+        <v>1097</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13420</v>
+        <v>13106</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06939250721899319</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02631968263304751</v>
+        <v>0.01466575995762196</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1794202136803347</v>
+        <v>0.1752248206050524</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3300,19 +3300,19 @@
         <v>8371</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3941</v>
+        <v>3885</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15012</v>
+        <v>15373</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07990182144171985</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0376163493263398</v>
+        <v>0.0370849935647307</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1432996866469452</v>
+        <v>0.1467444081907641</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3321,19 +3321,19 @@
         <v>13561</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7196</v>
+        <v>7181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22735</v>
+        <v>22308</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07552398332588316</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04007490603797636</v>
+        <v>0.03998966587938951</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1266152933889888</v>
+        <v>0.1242403216158991</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>54185</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44728</v>
+        <v>45152</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61396</v>
+        <v>62264</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7244173898450613</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5979902175249788</v>
+        <v>0.603647195179292</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8208261518064519</v>
+        <v>0.8324231222478651</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -3371,19 +3371,19 @@
         <v>75528</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65083</v>
+        <v>64708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83722</v>
+        <v>84644</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7209653359711129</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6212545626774152</v>
+        <v>0.6176795700360207</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7991791557537276</v>
+        <v>0.8079835202698121</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -3392,19 +3392,19 @@
         <v>129714</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>116108</v>
+        <v>116396</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>141953</v>
+        <v>140748</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7224033492141285</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6466276409928745</v>
+        <v>0.6482330144944584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7905648845837424</v>
+        <v>0.7838514639825845</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>93880</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>76312</v>
+        <v>76041</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>114497</v>
+        <v>115523</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1260212024452605</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1024391633057432</v>
+        <v>0.1020745488370299</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1536969236373087</v>
+        <v>0.1550743399689759</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>110</v>
@@ -3517,19 +3517,19 @@
         <v>115826</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>96338</v>
+        <v>96496</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>137527</v>
+        <v>138824</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1046260616668709</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08702277976897098</v>
+        <v>0.08716500767314964</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1242285030968434</v>
+        <v>0.1254006614816072</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>197</v>
@@ -3538,19 +3538,19 @@
         <v>209706</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>182315</v>
+        <v>177935</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>237531</v>
+        <v>236373</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1132320932068331</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09844199215788406</v>
+        <v>0.09607707928886849</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1282566866289088</v>
+        <v>0.1276314219758356</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>41912</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30780</v>
+        <v>30597</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56132</v>
+        <v>57253</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05626061743621254</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04131769580018343</v>
+        <v>0.04107212739891784</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07534964456951704</v>
+        <v>0.07685466172950191</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>87</v>
@@ -3588,19 +3588,19 @@
         <v>95855</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>77262</v>
+        <v>78274</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>115890</v>
+        <v>117785</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08658579589266686</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06979148969709624</v>
+        <v>0.0707053256916131</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1046842921787345</v>
+        <v>0.1063955129141786</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>126</v>
@@ -3609,19 +3609,19 @@
         <v>137766</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>115878</v>
+        <v>115495</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>162679</v>
+        <v>163620</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07438772508049285</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06256891450880542</v>
+        <v>0.06236219660667081</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08783966866896108</v>
+        <v>0.08834795914996274</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>76575</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>61188</v>
+        <v>60182</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>96118</v>
+        <v>98808</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1027913352643552</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08213735995226606</v>
+        <v>0.08078668334544394</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1290249894616251</v>
+        <v>0.1326365343617504</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>122</v>
@@ -3659,19 +3659,19 @@
         <v>131169</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>110348</v>
+        <v>109446</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>155127</v>
+        <v>155153</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1184852771761025</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09967747484129874</v>
+        <v>0.09886328704815051</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1401270124289271</v>
+        <v>0.1401503718681142</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>190</v>
@@ -3680,19 +3680,19 @@
         <v>207743</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>178398</v>
+        <v>179255</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>237903</v>
+        <v>237059</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1121725092220233</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09632700452684277</v>
+        <v>0.09679010240669499</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1284571979378247</v>
+        <v>0.1280016196802026</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>532587</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>506499</v>
+        <v>502062</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>558546</v>
+        <v>555345</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7149268448541717</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6799068389350272</v>
+        <v>0.6739518123374767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7497737188480862</v>
+        <v>0.7454764494276629</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>713</v>
@@ -3730,19 +3730,19 @@
         <v>764198</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>731874</v>
+        <v>733342</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>796592</v>
+        <v>798083</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6903028652643597</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6611050937403278</v>
+        <v>0.6624303715791231</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7195644410144099</v>
+        <v>0.7209118333775185</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1202</v>
@@ -3751,19 +3751,19 @@
         <v>1296785</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1255572</v>
+        <v>1255136</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1336925</v>
+        <v>1337125</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7002076724906507</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6779545431459433</v>
+        <v>0.6777191125775138</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7218815485051547</v>
+        <v>0.7219896020529533</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>30650</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21163</v>
+        <v>21229</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41400</v>
+        <v>41324</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1241244493786707</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08570306161583155</v>
+        <v>0.0859711742094757</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1676596296041263</v>
+        <v>0.1673520716696252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -4115,19 +4115,19 @@
         <v>45643</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33267</v>
+        <v>33777</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60412</v>
+        <v>60397</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1131874218064328</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08249742571593267</v>
+        <v>0.08376331528165661</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1498135688229226</v>
+        <v>0.1497768443393115</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -4136,19 +4136,19 @@
         <v>76293</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60257</v>
+        <v>60855</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93551</v>
+        <v>94608</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1173411783086411</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09267717782175534</v>
+        <v>0.09359714759839767</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1438844733600042</v>
+        <v>0.1455108372836215</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>13868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7456</v>
+        <v>7738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22528</v>
+        <v>23439</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05616051243142613</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03019501992605666</v>
+        <v>0.03133704772599614</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09123051198534252</v>
+        <v>0.09492276850871753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -4186,19 +4186,19 @@
         <v>30245</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20403</v>
+        <v>21149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44136</v>
+        <v>43100</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07500239237730295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05059776889233513</v>
+        <v>0.05244568335129534</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.10945204064306</v>
+        <v>0.1068807607972211</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -4207,19 +4207,19 @@
         <v>44112</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32655</v>
+        <v>31517</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58644</v>
+        <v>58005</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06784646442319621</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05022389643703428</v>
+        <v>0.04847357846242911</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09019742742697645</v>
+        <v>0.08921410310796553</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>26383</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17563</v>
+        <v>18243</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36413</v>
+        <v>38279</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1068448170501363</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07112496513512367</v>
+        <v>0.07388057965825726</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.147463075593937</v>
+        <v>0.1550185353610916</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -4257,19 +4257,19 @@
         <v>36640</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25629</v>
+        <v>26276</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49131</v>
+        <v>50278</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09086197981190233</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06355510296670848</v>
+        <v>0.06515964838472843</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1218388600280681</v>
+        <v>0.1246827119878697</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -4278,19 +4278,19 @@
         <v>63023</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49040</v>
+        <v>50572</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78624</v>
+        <v>79634</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09693207643217319</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07542504406893699</v>
+        <v>0.0777822763064807</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1209260121699234</v>
+        <v>0.1224793930929727</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>176030</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>162022</v>
+        <v>162332</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>189226</v>
+        <v>189741</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7128702211397669</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6561422772101425</v>
+        <v>0.6574002050106172</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7663113562715751</v>
+        <v>0.7683987565246702</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>258</v>
@@ -4328,19 +4328,19 @@
         <v>290722</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>273669</v>
+        <v>271646</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>308937</v>
+        <v>306763</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7209482060043619</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6786611645457872</v>
+        <v>0.6736441248088036</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7661191581543448</v>
+        <v>0.7607278313992428</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>439</v>
@@ -4349,19 +4349,19 @@
         <v>466751</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>444130</v>
+        <v>442279</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>490328</v>
+        <v>489743</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7178802808359895</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6830887251643545</v>
+        <v>0.6802424904985062</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7541423412177907</v>
+        <v>0.7532426715625582</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>43883</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30687</v>
+        <v>32602</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58131</v>
+        <v>59022</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09766183784488298</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06829384397596634</v>
+        <v>0.0725554744896678</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1293710300094696</v>
+        <v>0.1313544527156167</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>71</v>
@@ -4474,19 +4474,19 @@
         <v>76632</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>61180</v>
+        <v>61492</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>94400</v>
+        <v>95218</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1355593446568284</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1082253023318244</v>
+        <v>0.1087761660109324</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1669897018680626</v>
+        <v>0.1684358298524857</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>109</v>
@@ -4495,19 +4495,19 @@
         <v>120515</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>100820</v>
+        <v>99881</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>143646</v>
+        <v>144719</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1187763140359295</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09936542785566969</v>
+        <v>0.09844007383058213</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1415728644946425</v>
+        <v>0.1426303169808243</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>24282</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15494</v>
+        <v>15408</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35477</v>
+        <v>35259</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05403938773288187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03448147793223223</v>
+        <v>0.0342896730377455</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07895493714011141</v>
+        <v>0.07846983500078634</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -4545,19 +4545,19 @@
         <v>61173</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47311</v>
+        <v>47121</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78197</v>
+        <v>79913</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1082126765183451</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08369055763542195</v>
+        <v>0.08335526794683039</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1383268303834407</v>
+        <v>0.141362279947233</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -4566,19 +4566,19 @@
         <v>85455</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68784</v>
+        <v>67269</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105110</v>
+        <v>104266</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08422186443055234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06779187186007937</v>
+        <v>0.06629789942401301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1035928433621529</v>
+        <v>0.1027616688987412</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>56296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43339</v>
+        <v>43233</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71054</v>
+        <v>71226</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1252864389808556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09645209386670894</v>
+        <v>0.09621590730375648</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1581311116056845</v>
+        <v>0.1585144364895061</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>69</v>
@@ -4616,19 +4616,19 @@
         <v>72241</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58066</v>
+        <v>58206</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>89323</v>
+        <v>88825</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1277914047935891</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1027161389148409</v>
+        <v>0.1029639377840754</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1580083916147352</v>
+        <v>0.1571273907478944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>123</v>
@@ -4637,19 +4637,19 @@
         <v>128537</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>108575</v>
+        <v>109471</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151064</v>
+        <v>155920</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1266820727695057</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.107008554455089</v>
+        <v>0.1078915305098364</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1488844897059027</v>
+        <v>0.1536703136763445</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>324876</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>305258</v>
+        <v>304686</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>345388</v>
+        <v>344070</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7230123354413796</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6793522052806029</v>
+        <v>0.6780779611728047</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.768660870073671</v>
+        <v>0.7657278938848328</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>339</v>
@@ -4687,19 +4687,19 @@
         <v>355258</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>331072</v>
+        <v>328895</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>376704</v>
+        <v>376908</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6284365740312373</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5856511250178126</v>
+        <v>0.5818007774939328</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6663732858898304</v>
+        <v>0.6667336883764459</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>643</v>
@@ -4708,19 +4708,19 @@
         <v>680135</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>648504</v>
+        <v>650009</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>710825</v>
+        <v>709787</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6703197487640125</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6391460474094607</v>
+        <v>0.6406291681476648</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7005674098545772</v>
+        <v>0.6995445615426517</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>13884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7632</v>
+        <v>7534</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23911</v>
+        <v>23539</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1210059765984991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06651823045093778</v>
+        <v>0.06566085789305069</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2083943735956465</v>
+        <v>0.2051544295414121</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -4833,19 +4833,19 @@
         <v>16598</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9104</v>
+        <v>9540</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26503</v>
+        <v>26301</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1260067545605776</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0691132333156847</v>
+        <v>0.07242147519759266</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2011976227271519</v>
+        <v>0.1996642203379006</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -4854,19 +4854,19 @@
         <v>30482</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21305</v>
+        <v>21234</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44542</v>
+        <v>44637</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1236786885152674</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08644125305054673</v>
+        <v>0.08615341263997249</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1807246196732309</v>
+        <v>0.181111639018551</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>11052</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5770</v>
+        <v>5420</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20326</v>
+        <v>19294</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09632453596923665</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05028895331675917</v>
+        <v>0.04724145962160171</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1771520465306855</v>
+        <v>0.1681572192670983</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -4904,19 +4904,19 @@
         <v>15120</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7653</v>
+        <v>9404</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>23050</v>
+        <v>24136</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1147856792803934</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05810152104140878</v>
+        <v>0.07139084262132973</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.174987908613083</v>
+        <v>0.1832264313836503</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>24</v>
@@ -4925,19 +4925,19 @@
         <v>26172</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>17632</v>
+        <v>16695</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>38871</v>
+        <v>37785</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1061912643261157</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07154133351884993</v>
+        <v>0.06773866334151911</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1577140931098565</v>
+        <v>0.153309114913176</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>21603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13401</v>
+        <v>13298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32160</v>
+        <v>31747</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.18827728181175</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1167924658316043</v>
+        <v>0.1159018257663729</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2802853561197715</v>
+        <v>0.2766868616599</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4975,19 +4975,19 @@
         <v>14058</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8695</v>
+        <v>7874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23141</v>
+        <v>22162</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1067205195348512</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06600995699479138</v>
+        <v>0.05977374512935302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1756729991021823</v>
+        <v>0.1682415336553598</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -4996,19 +4996,19 @@
         <v>35661</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24473</v>
+        <v>25816</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47813</v>
+        <v>49047</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1446885178067381</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09929672849398725</v>
+        <v>0.1047466431355185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1939959691451547</v>
+        <v>0.1990011979073958</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>68200</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57069</v>
+        <v>56278</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79151</v>
+        <v>78909</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5943922056205142</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4973838663430527</v>
+        <v>0.4904903844623082</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.68983766289529</v>
+        <v>0.6877218406009523</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>81</v>
@@ -5046,19 +5046,19 @@
         <v>85949</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73786</v>
+        <v>74069</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96540</v>
+        <v>95956</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6524870466241777</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5601491631972028</v>
+        <v>0.5623017220110701</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7328896493939191</v>
+        <v>0.7284533968146608</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>145</v>
@@ -5067,19 +5067,19 @@
         <v>154149</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>137225</v>
+        <v>138332</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>169072</v>
+        <v>169666</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6254415293518789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.55677646019588</v>
+        <v>0.5612660205275853</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6859913844497009</v>
+        <v>0.6884007375111147</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>88417</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70695</v>
+        <v>72722</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109864</v>
+        <v>108607</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1090216787248691</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08716995752837123</v>
+        <v>0.08966845133022477</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1354658316361644</v>
+        <v>0.1339158775912155</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>126</v>
@@ -5192,19 +5192,19 @@
         <v>138873</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>115517</v>
+        <v>115366</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>161780</v>
+        <v>160752</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1262164681710483</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1049891548278722</v>
+        <v>0.1048516987432007</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1470351415975437</v>
+        <v>0.1461015199813402</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>207</v>
@@ -5213,19 +5213,19 @@
         <v>227291</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>200471</v>
+        <v>194884</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>259421</v>
+        <v>256405</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1189202811640229</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1048881250845964</v>
+        <v>0.1019646863541144</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.135731105299995</v>
+        <v>0.1341530422886717</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>49202</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37193</v>
+        <v>36316</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65597</v>
+        <v>65078</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06066759706720407</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04586055204311481</v>
+        <v>0.04477914087331739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08088292199083755</v>
+        <v>0.08024289038291038</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>97</v>
@@ -5263,19 +5263,19 @@
         <v>106538</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>87334</v>
+        <v>87006</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>128202</v>
+        <v>127362</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09682812157092055</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0793747587662743</v>
+        <v>0.0790763959665029</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1165181040551319</v>
+        <v>0.115754131549559</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>143</v>
@@ -5284,19 +5284,19 @@
         <v>155740</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>133875</v>
+        <v>131397</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>182470</v>
+        <v>183630</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0814842902389315</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.070044356261025</v>
+        <v>0.06874805889437403</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09547004114837901</v>
+        <v>0.09607661147949889</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>104282</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>84553</v>
+        <v>86116</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>125162</v>
+        <v>125036</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1285832077601669</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1042568795916328</v>
+        <v>0.1061838420679943</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1543290725724463</v>
+        <v>0.1541734893739241</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>117</v>
@@ -5334,19 +5334,19 @@
         <v>122939</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>102322</v>
+        <v>102350</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>145760</v>
+        <v>146306</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1117342807901217</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0929966434124061</v>
+        <v>0.09302151871286446</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1324753884383918</v>
+        <v>0.1329721817372417</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>215</v>
@@ -5355,19 +5355,19 @@
         <v>227221</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>199591</v>
+        <v>197633</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>261641</v>
+        <v>255182</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1188837095415439</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.104427780758806</v>
+        <v>0.1034031927890904</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1368929770590678</v>
+        <v>0.1335132328323221</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>569106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>539582</v>
+        <v>543580</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>596748</v>
+        <v>597785</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.70172751644776</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6653240359527909</v>
+        <v>0.6702531005462435</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7358115824248237</v>
+        <v>0.7370901486321467</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>678</v>
@@ -5405,19 +5405,19 @@
         <v>731928</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>697893</v>
+        <v>702627</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>763168</v>
+        <v>765548</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6652211294679095</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.63428798439093</v>
+        <v>0.6385905985156848</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6936135507493094</v>
+        <v>0.6957767925424387</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1227</v>
@@ -5426,19 +5426,19 @@
         <v>1301034</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1259893</v>
+        <v>1258162</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1342881</v>
+        <v>1341787</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6807117190555018</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6591863483444401</v>
+        <v>0.6582805379137457</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.702606246175291</v>
+        <v>0.7020338391229419</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>24692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16800</v>
+        <v>17178</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33816</v>
+        <v>33759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1802786379005625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1226620218180297</v>
+        <v>0.1254222868783581</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2468958301888947</v>
+        <v>0.2464839950518262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -5790,19 +5790,19 @@
         <v>48781</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39489</v>
+        <v>39472</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58777</v>
+        <v>59851</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2060511625382198</v>
+        <v>0.2060511625382197</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1667991271656867</v>
+        <v>0.1667295089616271</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2482723375872235</v>
+        <v>0.2528113511192551</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>108</v>
@@ -5811,19 +5811,19 @@
         <v>73473</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62382</v>
+        <v>60774</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87380</v>
+        <v>86766</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1966055469621506</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1669281980218526</v>
+        <v>0.1626248270172921</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2338208975892944</v>
+        <v>0.2321773216422406</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>44548</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34600</v>
+        <v>35042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54917</v>
+        <v>55633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3252570106713747</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2526254733686657</v>
+        <v>0.2558478131250685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4009634809937168</v>
+        <v>0.4061868935033938</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>111</v>
@@ -5861,19 +5861,19 @@
         <v>65990</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56226</v>
+        <v>55422</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77746</v>
+        <v>76600</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2787403205302501</v>
+        <v>0.27874032053025</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2374978761341631</v>
+        <v>0.2341029603132838</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3283972354369865</v>
+        <v>0.3235594326801522</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>162</v>
@@ -5882,19 +5882,19 @@
         <v>110538</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96848</v>
+        <v>96834</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>125072</v>
+        <v>125680</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2957886609284662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2591552177490939</v>
+        <v>0.2591183332899138</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.334679270738622</v>
+        <v>0.3363070334422356</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>23125</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16023</v>
+        <v>16571</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30883</v>
+        <v>31736</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1688445710434159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1169866256389702</v>
+        <v>0.1209869901415449</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2254840021243703</v>
+        <v>0.2317145355716692</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>93</v>
@@ -5932,19 +5932,19 @@
         <v>54246</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44739</v>
+        <v>43864</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63928</v>
+        <v>64887</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2291357158768516</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1889753693364067</v>
+        <v>0.1852807237905755</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2700305864834145</v>
+        <v>0.2740834579402484</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>125</v>
@@ -5953,19 +5953,19 @@
         <v>77372</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>65203</v>
+        <v>64779</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>90636</v>
+        <v>90668</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2070390456924474</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1744777569898926</v>
+        <v>0.173341722769821</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2425324832375508</v>
+        <v>0.2426173257490985</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>44598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35281</v>
+        <v>35927</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54474</v>
+        <v>55791</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3256197803846468</v>
+        <v>0.3256197803846469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2575979280694697</v>
+        <v>0.2623139401387039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3977243224598689</v>
+        <v>0.4073420837023332</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -6003,19 +6003,19 @@
         <v>67726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57742</v>
+        <v>57815</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79616</v>
+        <v>80345</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2860728010546786</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2439005671221963</v>
+        <v>0.2442118688199156</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.336298894002564</v>
+        <v>0.3393757863340688</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>188</v>
@@ -6024,19 +6024,19 @@
         <v>112324</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98227</v>
+        <v>99092</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126511</v>
+        <v>127388</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3005667464169359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2628444906159154</v>
+        <v>0.2651592609264781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3385301611362199</v>
+        <v>0.340878914529806</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>63023</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>48860</v>
+        <v>50496</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>77845</v>
+        <v>78597</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.166633527977565</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1291846740673282</v>
+        <v>0.1335100823997837</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2058215332930326</v>
+        <v>0.20780868014466</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>138</v>
@@ -6149,19 +6149,19 @@
         <v>100243</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>85534</v>
+        <v>84966</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>117258</v>
+        <v>117200</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.214548245164277</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.183066860175799</v>
+        <v>0.1818503044780572</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2509642834660152</v>
+        <v>0.2508396426948972</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>202</v>
@@ -6170,19 +6170,19 @@
         <v>163267</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>142690</v>
+        <v>140779</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>185691</v>
+        <v>186940</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1931132967712824</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1687751094699321</v>
+        <v>0.1665146285013475</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2196371257140351</v>
+        <v>0.2211144034381732</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>107061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89840</v>
+        <v>89325</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126100</v>
+        <v>126415</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2830693075619899</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2375364645596367</v>
+        <v>0.23617437437524</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.333407703228798</v>
+        <v>0.3342411060085673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>204</v>
@@ -6220,19 +6220,19 @@
         <v>146735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127456</v>
+        <v>130306</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164299</v>
+        <v>164975</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3140537382013626</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2727911324901326</v>
+        <v>0.2788908815855118</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3516456262974939</v>
+        <v>0.3530920614990681</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>312</v>
@@ -6241,19 +6241,19 @@
         <v>253797</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>229297</v>
+        <v>230325</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>280395</v>
+        <v>281845</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3001926593776424</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2712136865951461</v>
+        <v>0.2724300150274164</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3316536458160629</v>
+        <v>0.3333680707082799</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>70876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56598</v>
+        <v>56741</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>90973</v>
+        <v>88798</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.18739571395152</v>
+        <v>0.1873957139515201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1496450378873092</v>
+        <v>0.1500231602858907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2405315577188629</v>
+        <v>0.2347824691174451</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>101</v>
@@ -6291,19 +6291,19 @@
         <v>72559</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59997</v>
+        <v>59589</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87824</v>
+        <v>89247</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1552955183211974</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1284093411108007</v>
+        <v>0.1275373782373392</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1879679081308376</v>
+        <v>0.1910132970756044</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>170</v>
@@ -6312,19 +6312,19 @@
         <v>143435</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>123902</v>
+        <v>122145</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>170386</v>
+        <v>163798</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1696557415916337</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1465522805372806</v>
+        <v>0.144474402363922</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2015340258079593</v>
+        <v>0.1937420610215971</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>137255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>117848</v>
+        <v>117826</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>159101</v>
+        <v>156622</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.362901450508925</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3115893533792765</v>
+        <v>0.3115321589967315</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4206620360441761</v>
+        <v>0.4141083291791101</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>193</v>
@@ -6362,19 +6362,19 @@
         <v>147693</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>130181</v>
+        <v>128998</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>167156</v>
+        <v>167421</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3161024983131631</v>
+        <v>0.316102498313163</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2786234065186383</v>
+        <v>0.2760904411632356</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3577605057783975</v>
+        <v>0.3583263933868523</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>315</v>
@@ -6383,19 +6383,19 @@
         <v>284948</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>256344</v>
+        <v>255061</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>316125</v>
+        <v>314409</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3370383022594414</v>
+        <v>0.3370383022594415</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3032062346621028</v>
+        <v>0.3016880488657614</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3739150850560125</v>
+        <v>0.3718857449430027</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>32383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22468</v>
+        <v>22961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43920</v>
+        <v>45261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2387095631100677</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1656198540644695</v>
+        <v>0.1692566478984823</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3237535218159616</v>
+        <v>0.3336371533834808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -6508,19 +6508,19 @@
         <v>28534</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21064</v>
+        <v>20257</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37167</v>
+        <v>38199</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1709044023378349</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1261595320911817</v>
+        <v>0.1213294744517265</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2226091709188109</v>
+        <v>0.2287920750256345</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>73</v>
@@ -6529,19 +6529,19 @@
         <v>60917</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48235</v>
+        <v>47875</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74377</v>
+        <v>74494</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2013001196921833</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1593932122990434</v>
+        <v>0.158202250975388</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2457783192211391</v>
+        <v>0.2461660650495956</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>36759</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27068</v>
+        <v>27188</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48503</v>
+        <v>48119</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2709661331682931</v>
+        <v>0.2709661331682932</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1995293299521264</v>
+        <v>0.2004154729855839</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3575391028578647</v>
+        <v>0.3547074167106804</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>73</v>
@@ -6579,19 +6579,19 @@
         <v>53723</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>43162</v>
+        <v>43802</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>63749</v>
+        <v>65113</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3217739192352371</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2585195806935758</v>
+        <v>0.2623487273440333</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3818210210158446</v>
+        <v>0.3899913804108031</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>112</v>
@@ -6600,19 +6600,19 @@
         <v>90482</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>75196</v>
+        <v>75162</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>105696</v>
+        <v>107054</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2989977899981324</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2484835429405241</v>
+        <v>0.2483741594415646</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3492725287096277</v>
+        <v>0.3537585907721326</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>21692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13802</v>
+        <v>13771</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32757</v>
+        <v>32635</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1599028594053405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1017424943474168</v>
+        <v>0.1015104744105846</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2414646594201124</v>
+        <v>0.2405659889086226</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -6650,19 +6650,19 @@
         <v>25981</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18580</v>
+        <v>17632</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35398</v>
+        <v>35786</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1556136620014</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1112816030069617</v>
+        <v>0.1056079126358613</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2120119813360397</v>
+        <v>0.2143393744228035</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -6671,19 +6671,19 @@
         <v>47673</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37364</v>
+        <v>36396</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61773</v>
+        <v>61011</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1575364246714145</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.123469105560596</v>
+        <v>0.1202711376307146</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2041275571867443</v>
+        <v>0.201609927420802</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>44824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33401</v>
+        <v>34134</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56801</v>
+        <v>58336</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3304214443162986</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2462123517784049</v>
+        <v>0.2516214967047369</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.418708617440419</v>
+        <v>0.4300233969152548</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -6721,19 +6721,19 @@
         <v>58721</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47645</v>
+        <v>48146</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70431</v>
+        <v>70750</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.351708016425528</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2853672943857775</v>
+        <v>0.2883696898552495</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4218419841448259</v>
+        <v>0.4237568359331917</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>118</v>
@@ -6742,19 +6742,19 @@
         <v>103545</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>87491</v>
+        <v>87569</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>120140</v>
+        <v>120868</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3421656656382696</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2891140533964129</v>
+        <v>0.2893717811437074</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3970033036371842</v>
+        <v>0.3994071656332643</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>120098</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>101226</v>
+        <v>102414</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>141526</v>
+        <v>141700</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1845282632535163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1555324501305123</v>
+        <v>0.1573575425571639</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2174529501012691</v>
+        <v>0.2177203906201817</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>255</v>
@@ -6867,19 +6867,19 @@
         <v>177559</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>159116</v>
+        <v>159046</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>200057</v>
+        <v>199280</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2038718718018472</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1826956628748511</v>
+        <v>0.1826152018047544</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2297036584370901</v>
+        <v>0.2288120716336453</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>383</v>
@@ -6888,19 +6888,19 @@
         <v>297657</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>267929</v>
+        <v>270012</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>327430</v>
+        <v>329963</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1955989248958985</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1760639986920041</v>
+        <v>0.1774328105710765</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2151636150026209</v>
+        <v>0.2168285175351411</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>188368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>165585</v>
+        <v>165966</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>212660</v>
+        <v>214513</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2894246152625135</v>
+        <v>0.2894246152625136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2544196026878174</v>
+        <v>0.2550043035949197</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3267484775155423</v>
+        <v>0.3295966298439316</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>388</v>
@@ -6938,19 +6938,19 @@
         <v>266449</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242122</v>
+        <v>244855</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>289467</v>
+        <v>291863</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3059345945701126</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2780022079739234</v>
+        <v>0.2811404777085947</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3323644285078531</v>
+        <v>0.3351148558182996</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>586</v>
@@ -6959,19 +6959,19 @@
         <v>454817</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>420668</v>
+        <v>421519</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>484849</v>
+        <v>489007</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2988735448239491</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2764334338436813</v>
+        <v>0.2769927817677811</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3186088713322248</v>
+        <v>0.3213407214339601</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>115693</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>96680</v>
+        <v>94955</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>137159</v>
+        <v>136815</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1777612836659085</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1485475114105942</v>
+        <v>0.1458968186091431</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2107429582946953</v>
+        <v>0.2102140513013101</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>228</v>
@@ -7009,19 +7009,19 @@
         <v>152786</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>135289</v>
+        <v>135252</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>173849</v>
+        <v>171923</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1754282301911596</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1553379897177771</v>
+        <v>0.1552956047710268</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.199612508047847</v>
+        <v>0.1974011375711807</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>352</v>
@@ -7030,19 +7030,19 @@
         <v>268480</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>243227</v>
+        <v>243045</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>300220</v>
+        <v>298131</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1764260392337233</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1598318621542949</v>
+        <v>0.1597119148054407</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1972834916722603</v>
+        <v>0.195910406541102</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>226677</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>199348</v>
+        <v>201685</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>253489</v>
+        <v>253474</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3482858378180617</v>
+        <v>0.3482858378180618</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3062946590140821</v>
+        <v>0.3098861014920223</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3894822479555533</v>
+        <v>0.3894591801874931</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>397</v>
@@ -7080,19 +7080,19 @@
         <v>274140</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>250086</v>
+        <v>251531</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>300184</v>
+        <v>299743</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3147653034368806</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2871466964656369</v>
+        <v>0.2888058264151477</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.34466887970373</v>
+        <v>0.3441623602221774</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>621</v>
@@ -7101,19 +7101,19 @@
         <v>500817</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>463701</v>
+        <v>465032</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>538268</v>
+        <v>537534</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3291014910464291</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3047113147273429</v>
+        <v>0.3055862512357646</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3537116054548675</v>
+        <v>0.3532296364598148</v>
       </c>
     </row>
     <row r="23">
